--- a/medicine/Sexualité et sexologie/Miki_Sugimoto/Miki_Sugimoto.xlsx
+++ b/medicine/Sexualité et sexologie/Miki_Sugimoto/Miki_Sugimoto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miki Sugimoto (杉本美樹, Sugimoto Miki?) est une actrice japonaise née le 28 janvier 1953 à Chigasaki[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miki Sugimoto (杉本美樹, Sugimoto Miki?) est une actrice japonaise née le 28 janvier 1953 à Chigasaki.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miki Sugimoto joue principalement des rôles dans des films d'action érotique avec des délinquants nommé en anglais Pinky violence.
-En 1975, le film L'aubergine est farcie — un détournement par René Viénet du film Les Menottes rouges de Yukio Noda (ja) — est interdit par Michel Guy, secrétaire d'État à la culture, avant d'avoir pu être projeté[2].
-Miki Sugimoto a tourné dans une vingtaine de films entre 1971 et 1977[3].
+En 1975, le film L'aubergine est farcie — un détournement par René Viénet du film Les Menottes rouges de Yukio Noda (ja) — est interdit par Michel Guy, secrétaire d'État à la culture, avant d'avoir pu être projeté.
+Miki Sugimoto a tourné dans une vingtaine de films entre 1971 et 1977.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sauf indication contraire, la filmographie de Miki Sugimoto est établie à partir de la base de données JMDb[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf indication contraire, la filmographie de Miki Sugimoto est établie à partir de la base de données JMDb.
 1971 : Onsen mimizu geisha (温泉みみず芸者?) de Norifumi Suzuki
 1971 : Girl Boss Blues: Queen Bee's Counterattack (女番長ブルース 牝蜂の逆襲, Mesubachi no gyakushu?) de Norifumi Suzuki
 1971 : Gendai yakuza: Chizakura san kyōdai (現代やくざ 血桜三兄弟?) de Sadao Nakajima
@@ -564,7 +580,7 @@
 1973 : Girl Boss : Les Étudiantes en cavale (女番長 感化院脱走, Sukeban: Kankain dassō?) de Sadao Nakajima
 1973 : Zenka onna: Koroshi fushi (前科おんな 殺し節?) d'Atsushi Mihori
 1974 : Les Menottes rouges (0課の女 赤い手錠, Zeroka no onna: Akai wappa?) de Yukio Noda (ja)
-1975 : L'aubergine est farcie[2], un détournement du film Les Menottes rouges signé René Viénet
+1975 : L'aubergine est farcie, un détournement du film Les Menottes rouges signé René Viénet
 1975 : Les Préparatifs de la fête (祭りの準備, Matsuri no junbi?) de Kazuo Kuroki
 1976 : Oshare dai sakusen (おしゃれ大作戦?) de Kengo Furusawa (ja)
 1976 : Violent Panic: The Big Crash (暴走パニック 大激突, Bōsō panikku: Daigekitotsu?) de Kinji Fukasaku
